--- a/Document/04_データベース定義書.xlsx
+++ b/Document/04_データベース定義書.xlsx
@@ -375,7 +375,19 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -393,20 +405,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,62 +714,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="11">
         <v>42456</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="11">
         <v>42456</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -781,135 +781,135 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="6"/>
       <c r="C15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="6"/>
       <c r="C16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="6"/>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>32</v>
       </c>
@@ -942,12 +942,15 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="4"/>
       <c r="D20" t="s">
         <v>31</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
@@ -963,10 +966,10 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -984,10 +987,10 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="2"/>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -1005,10 +1008,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="2"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -1023,10 +1026,10 @@
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="2"/>
       <c r="D24" t="s">
         <v>43</v>
       </c>
@@ -1038,10 +1041,10 @@
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1050,24 +1053,24 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="3"/>
       <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1086,10 +1089,10 @@
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="2"/>
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -1101,10 +1104,10 @@
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="2"/>
       <c r="D29" t="s">
         <v>43</v>
       </c>
@@ -1116,10 +1119,10 @@
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="2"/>
       <c r="D30" t="s">
         <v>43</v>
       </c>
@@ -1128,21 +1131,24 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="2"/>
       <c r="D32" t="s">
         <v>31</v>
+      </c>
+      <c r="E32">
+        <v>255</v>
       </c>
       <c r="I32" t="s">
         <v>41</v>
@@ -1158,15 +1164,15 @@
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="3"/>
       <c r="D33" t="s">
         <v>42</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1182,10 +1188,10 @@
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="12"/>
+      <c r="C34" s="4"/>
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -1200,10 +1206,10 @@
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="2"/>
       <c r="D35" t="s">
         <v>31</v>
       </c>
@@ -1218,10 +1224,10 @@
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="2"/>
       <c r="D36" t="s">
         <v>43</v>
       </c>
@@ -1233,10 +1239,10 @@
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="2"/>
       <c r="D37" t="s">
         <v>43</v>
       </c>
@@ -1246,12 +1252,35 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -1263,35 +1292,12 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
